--- a/Data/data_IHPC_otsu.xlsx
+++ b/Data/data_IHPC_otsu.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,31 +410,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>36727</v>
+        <v>35888</v>
       </c>
       <c r="C2" t="n">
-        <v>1963.981002211571</v>
+        <v>1581.339305043221</v>
       </c>
       <c r="D2" t="n">
-        <v>200.7613067626953</v>
+        <v>201.1191101074219</v>
       </c>
       <c r="E2" t="n">
-        <v>313.5234069824219</v>
+        <v>317.0276489257812</v>
       </c>
       <c r="F2" t="n">
-        <v>257.1423568725586</v>
+        <v>259.0733795166016</v>
       </c>
       <c r="G2" t="n">
-        <v>1066426</v>
+        <v>1043300</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8909215767523927</v>
+        <v>0.8716014810458216</v>
       </c>
       <c r="I2" t="n">
-        <v>130566</v>
+        <v>153692</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1090784232476073</v>
+        <v>0.1283985189541785</v>
       </c>
     </row>
     <row r="3">
@@ -442,19 +442,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>10803</v>
+        <v>13183</v>
       </c>
       <c r="C3" t="n">
-        <v>611.068103313446</v>
+        <v>565.2274836301804</v>
       </c>
       <c r="D3" t="n">
-        <v>95.09247589111328</v>
+        <v>104.5370025634766</v>
       </c>
       <c r="E3" t="n">
-        <v>170.8377532958984</v>
+        <v>171.9004211425781</v>
       </c>
       <c r="F3" t="n">
-        <v>132.9651145935059</v>
+        <v>138.2187118530273</v>
       </c>
     </row>
     <row r="4">
@@ -462,19 +462,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>209527</v>
+        <v>206526</v>
       </c>
       <c r="C4" t="n">
-        <v>6369.361396074295</v>
+        <v>5321.075913786888</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9528503417969</v>
+        <v>462.2850036621094</v>
       </c>
       <c r="E4" t="n">
-        <v>926.7958984375</v>
+        <v>935.1294555664062</v>
       </c>
       <c r="F4" t="n">
-        <v>691.8743743896484</v>
+        <v>698.7072296142578</v>
       </c>
     </row>
     <row r="5">
@@ -482,19 +482,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>17152</v>
+        <v>13607</v>
       </c>
       <c r="C5" t="n">
-        <v>982.9402484893799</v>
+        <v>671.2934989929199</v>
       </c>
       <c r="D5" t="n">
-        <v>122.2123641967773</v>
+        <v>97.48989105224609</v>
       </c>
       <c r="E5" t="n">
-        <v>221.3904876708984</v>
+        <v>202.2839965820312</v>
       </c>
       <c r="F5" t="n">
-        <v>171.8014259338379</v>
+        <v>149.8869438171387</v>
       </c>
     </row>
     <row r="6">
@@ -502,19 +502,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>53091</v>
+        <v>54528</v>
       </c>
       <c r="C6" t="n">
-        <v>1632.98605453968</v>
+        <v>1432.351497650146</v>
       </c>
       <c r="D6" t="n">
-        <v>170.7637329101562</v>
+        <v>167.9156951904297</v>
       </c>
       <c r="E6" t="n">
-        <v>430.0966186523438</v>
+        <v>444.4967346191406</v>
       </c>
       <c r="F6" t="n">
-        <v>300.43017578125</v>
+        <v>306.2062149047852</v>
       </c>
     </row>
     <row r="7">
@@ -522,19 +522,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>12566</v>
+        <v>11527</v>
       </c>
       <c r="C7" t="n">
-        <v>759.903670668602</v>
+        <v>613.2518688440323</v>
       </c>
       <c r="D7" t="n">
-        <v>78.51267242431641</v>
+        <v>75.05805969238281</v>
       </c>
       <c r="E7" t="n">
-        <v>234.1863555908203</v>
+        <v>216.8894958496094</v>
       </c>
       <c r="F7" t="n">
-        <v>156.3495140075684</v>
+        <v>145.9737777709961</v>
       </c>
     </row>
     <row r="8">
@@ -542,19 +542,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>7768</v>
+        <v>7389</v>
       </c>
       <c r="C8" t="n">
-        <v>489.7716399431229</v>
+        <v>481.1442233324051</v>
       </c>
       <c r="D8" t="n">
-        <v>85.65796661376953</v>
+        <v>83.84461212158203</v>
       </c>
       <c r="E8" t="n">
-        <v>144.6309814453125</v>
+        <v>143.9933929443359</v>
       </c>
       <c r="F8" t="n">
-        <v>115.144474029541</v>
+        <v>113.919002532959</v>
       </c>
     </row>
     <row r="9">
@@ -562,19 +562,19 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>49788</v>
+        <v>50045</v>
       </c>
       <c r="C9" t="n">
-        <v>1747.755606532097</v>
+        <v>1643.145434856415</v>
       </c>
       <c r="D9" t="n">
-        <v>118.0425109863281</v>
+        <v>116.3230285644531</v>
       </c>
       <c r="E9" t="n">
-        <v>697.5323486328125</v>
+        <v>693.9034423828125</v>
       </c>
       <c r="F9" t="n">
-        <v>407.7874298095703</v>
+        <v>405.1132354736328</v>
       </c>
     </row>
     <row r="10">
@@ -582,19 +582,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>123770</v>
+        <v>119200</v>
       </c>
       <c r="C10" t="n">
-        <v>2874.924215078354</v>
+        <v>3261.524282097816</v>
       </c>
       <c r="D10" t="n">
-        <v>162.3507843017578</v>
+        <v>149.9643249511719</v>
       </c>
       <c r="E10" t="n">
-        <v>1104.632568359375</v>
+        <v>1128.360961914062</v>
       </c>
       <c r="F10" t="n">
-        <v>633.4916763305664</v>
+        <v>639.1626434326172</v>
       </c>
     </row>
     <row r="11">
@@ -602,19 +602,19 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>29273</v>
+        <v>27459</v>
       </c>
       <c r="C11" t="n">
-        <v>1616.64290869236</v>
+        <v>1229.900706291199</v>
       </c>
       <c r="D11" t="n">
-        <v>107.9346084594727</v>
+        <v>97.284423828125</v>
       </c>
       <c r="E11" t="n">
-        <v>442.8616638183594</v>
+        <v>438.4075012207031</v>
       </c>
       <c r="F11" t="n">
-        <v>275.398136138916</v>
+        <v>267.8459625244141</v>
       </c>
     </row>
     <row r="12">
@@ -622,19 +622,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>139557</v>
+        <v>129424</v>
       </c>
       <c r="C12" t="n">
-        <v>4761.024178981781</v>
+        <v>3901.030107736588</v>
       </c>
       <c r="D12" t="n">
-        <v>281.228515625</v>
+        <v>256.6363830566406</v>
       </c>
       <c r="E12" t="n">
-        <v>876.0645751953125</v>
+        <v>895.7339477539062</v>
       </c>
       <c r="F12" t="n">
-        <v>578.6465454101562</v>
+        <v>576.1851654052734</v>
       </c>
     </row>
     <row r="13">
@@ -642,19 +642,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>27626</v>
+        <v>26558</v>
       </c>
       <c r="C13" t="n">
-        <v>1507.890601634979</v>
+        <v>1225.800201058388</v>
       </c>
       <c r="D13" t="n">
-        <v>105.7967910766602</v>
+        <v>91.88811492919922</v>
       </c>
       <c r="E13" t="n">
-        <v>404.8631896972656</v>
+        <v>432.3904418945312</v>
       </c>
       <c r="F13" t="n">
-        <v>255.3299903869629</v>
+        <v>262.1392784118652</v>
       </c>
     </row>
     <row r="14">
@@ -662,19 +662,19 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>21659</v>
+        <v>21248</v>
       </c>
       <c r="C14" t="n">
-        <v>1374.192117333412</v>
+        <v>1323.398180127144</v>
       </c>
       <c r="D14" t="n">
-        <v>75.16419219970703</v>
+        <v>87.59178161621094</v>
       </c>
       <c r="E14" t="n">
-        <v>417.9122314453125</v>
+        <v>415.9532165527344</v>
       </c>
       <c r="F14" t="n">
-        <v>246.5382118225098</v>
+        <v>251.7724990844727</v>
       </c>
     </row>
     <row r="15">
@@ -682,19 +682,19 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>53383</v>
+        <v>53037</v>
       </c>
       <c r="C15" t="n">
-        <v>2410.896865487099</v>
+        <v>2176.924215078354</v>
       </c>
       <c r="D15" t="n">
-        <v>186.4314575195312</v>
+        <v>180.5220184326172</v>
       </c>
       <c r="E15" t="n">
-        <v>462.4496765136719</v>
+        <v>474.5951232910156</v>
       </c>
       <c r="F15" t="n">
-        <v>324.4405670166016</v>
+        <v>327.5585708618164</v>
       </c>
     </row>
     <row r="16">
@@ -702,179 +702,199 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>97755</v>
+        <v>90276</v>
       </c>
       <c r="C16" t="n">
-        <v>4098.142805576324</v>
+        <v>3432.197504758835</v>
       </c>
       <c r="D16" t="n">
-        <v>280.1063537597656</v>
+        <v>268.2917175292969</v>
       </c>
       <c r="E16" t="n">
-        <v>680.5142211914062</v>
+        <v>680.5469360351562</v>
       </c>
       <c r="F16" t="n">
-        <v>480.3102874755859</v>
+        <v>474.4193267822266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n">
-        <v>18964</v>
+        <v>8154</v>
       </c>
       <c r="C17" t="n">
-        <v>1121.373794913292</v>
+        <v>558.7249574661255</v>
       </c>
       <c r="D17" t="n">
-        <v>70.93545532226562</v>
+        <v>60.90744018554688</v>
       </c>
       <c r="E17" t="n">
-        <v>385.8047180175781</v>
+        <v>208.7866058349609</v>
       </c>
       <c r="F17" t="n">
-        <v>228.3700866699219</v>
+        <v>134.8470230102539</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
-        <v>21093</v>
+        <v>22182</v>
       </c>
       <c r="C18" t="n">
-        <v>1135.650925397873</v>
+        <v>1140.989018917084</v>
       </c>
       <c r="D18" t="n">
-        <v>72.53887176513672</v>
+        <v>64.77391815185547</v>
       </c>
       <c r="E18" t="n">
-        <v>392.0391845703125</v>
+        <v>534.0418701171875</v>
       </c>
       <c r="F18" t="n">
-        <v>232.2890281677246</v>
+        <v>299.4078941345215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
-        <v>27610</v>
+        <v>22187</v>
       </c>
       <c r="C19" t="n">
-        <v>1158.403232455254</v>
+        <v>1069.52603495121</v>
       </c>
       <c r="D19" t="n">
-        <v>98.68730163574219</v>
+        <v>73.70420837402344</v>
       </c>
       <c r="E19" t="n">
-        <v>432.8774108886719</v>
+        <v>424.1092224121094</v>
       </c>
       <c r="F19" t="n">
-        <v>265.782356262207</v>
+        <v>248.9067153930664</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>22124</v>
+        <v>25870</v>
       </c>
       <c r="C20" t="n">
-        <v>1382.736273646355</v>
+        <v>967.7098004817963</v>
       </c>
       <c r="D20" t="n">
-        <v>95.48783111572266</v>
+        <v>95.52787017822266</v>
       </c>
       <c r="E20" t="n">
-        <v>354.5000915527344</v>
+        <v>383.9708251953125</v>
       </c>
       <c r="F20" t="n">
-        <v>224.9939613342285</v>
+        <v>239.7493476867676</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>25276</v>
+        <v>20257</v>
       </c>
       <c r="C21" t="n">
-        <v>990.1534515619278</v>
+        <v>1197.841831207275</v>
       </c>
       <c r="D21" t="n">
-        <v>110.4180221557617</v>
+        <v>93.77332305908203</v>
       </c>
       <c r="E21" t="n">
-        <v>321.1630249023438</v>
+        <v>331.8549499511719</v>
       </c>
       <c r="F21" t="n">
-        <v>215.7905235290527</v>
+        <v>212.814136505127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>17136</v>
+        <v>25710</v>
       </c>
       <c r="C22" t="n">
-        <v>711.6366448402405</v>
+        <v>923.1412589550018</v>
       </c>
       <c r="D22" t="n">
-        <v>113.7110137939453</v>
+        <v>107.4645614624023</v>
       </c>
       <c r="E22" t="n">
-        <v>221.3060607910156</v>
+        <v>357.4730834960938</v>
       </c>
       <c r="F22" t="n">
-        <v>167.5085372924805</v>
+        <v>232.468822479248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
-        <v>7927</v>
+        <v>16220</v>
       </c>
       <c r="C23" t="n">
-        <v>537.1442233324051</v>
+        <v>692.9503531455994</v>
       </c>
       <c r="D23" t="n">
-        <v>51.68363571166992</v>
+        <v>110.0148696899414</v>
       </c>
       <c r="E23" t="n">
-        <v>203.1569976806641</v>
+        <v>222.2274322509766</v>
       </c>
       <c r="F23" t="n">
-        <v>127.420316696167</v>
+        <v>166.121150970459</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>37</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7993</v>
+      </c>
+      <c r="C24" t="n">
+        <v>508.7178171873093</v>
+      </c>
+      <c r="D24" t="n">
+        <v>56.20280838012695</v>
+      </c>
+      <c r="E24" t="n">
+        <v>213.5616760253906</v>
+      </c>
+      <c r="F24" t="n">
+        <v>134.8822422027588</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
-        <v>7281</v>
-      </c>
-      <c r="C24" t="n">
-        <v>490.1564159393311</v>
-      </c>
-      <c r="D24" t="n">
-        <v>65.46387481689453</v>
-      </c>
-      <c r="E24" t="n">
-        <v>158.1438140869141</v>
-      </c>
-      <c r="F24" t="n">
-        <v>111.8038444519043</v>
+      <c r="B25" t="n">
+        <v>6805</v>
+      </c>
+      <c r="C25" t="n">
+        <v>446.0731556415558</v>
+      </c>
+      <c r="D25" t="n">
+        <v>57.32902526855469</v>
+      </c>
+      <c r="E25" t="n">
+        <v>169.9228668212891</v>
+      </c>
+      <c r="F25" t="n">
+        <v>113.6259460449219</v>
       </c>
     </row>
   </sheetData>
